--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>CfgId</t>
   </si>
@@ -69,6 +69,12 @@
     <t>#注释行</t>
   </si>
   <si>
+    <t>任务名</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
     <t>以_作为分隔符,按照字段顺序进行赋值,适用于字段少的结构简单的message</t>
   </si>
   <si>
@@ -76,6 +82,15 @@
   </si>
   <si>
     <t>以Field1_v1#Field2_v2的格式,按照字段名进行赋值</t>
+  </si>
+  <si>
+    <t>完成后自动接后续的任务</t>
+  </si>
+  <si>
+    <t>K_V格式的动态属性</t>
+  </si>
+  <si>
+    <t>详情</t>
   </si>
   <si>
     <t>升到5级</t>
@@ -842,9 +857,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1385,7 +1403,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1396,8 +1414,8 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
     <col min="9" max="9" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1459,18 +1477,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:6">
+    <row r="3" ht="60" customHeight="1" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1478,21 +1511,20 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1500,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1520,19 +1552,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1540,22 +1572,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
@@ -1563,22 +1595,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1586,19 +1618,19 @@
         <v>20001</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1606,22 +1638,22 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1629,22 +1661,22 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1652,22 +1684,22 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1675,22 +1707,22 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>40002</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1698,22 +1730,22 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>40003</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1721,19 +1753,19 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1741,19 +1773,19 @@
         <v>60001</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1761,19 +1793,19 @@
         <v>60002</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1781,19 +1813,19 @@
         <v>60003</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>CfgId</t>
   </si>
@@ -47,7 +47,7 @@
   </si>
   <si>
     <t>Rewards
-#Field=full#Ref=ItemCfg</t>
+#Field=CfgId_Num#Ref=ItemCfg</t>
   </si>
   <si>
     <t>NextQuests</t>
@@ -75,13 +75,13 @@
     <t>任务类型</t>
   </si>
   <si>
-    <t>以_作为分隔符,按照字段顺序进行赋值,适用于字段少的结构简单的message</t>
-  </si>
-  <si>
-    <t>解析时会按照表头指定的字段名进行赋值</t>
-  </si>
-  <si>
-    <t>以Field1_v1#Field2_v2的格式,按照字段名进行赋值</t>
+    <t>任务条件</t>
+  </si>
+  <si>
+    <t>任务进度</t>
+  </si>
+  <si>
+    <t>任务奖励</t>
   </si>
   <si>
     <t>完成后自动接后续的任务</t>
@@ -99,7 +99,7 @@
     <t>1_5</t>
   </si>
   <si>
-    <t>CfgId_1#Num_2</t>
+    <t>1_2</t>
   </si>
   <si>
     <t>升级任务示例</t>
@@ -111,7 +111,7 @@
     <t>2_5</t>
   </si>
   <si>
-    <t>CfgId_2#Num_3</t>
+    <t>2_3</t>
   </si>
   <si>
     <t>5场战斗示例</t>
@@ -123,7 +123,7 @@
     <t>3_5</t>
   </si>
   <si>
-    <t>CfgId_1#Num_5;CfgId_3#Num_1</t>
+    <t>1_5;3_1</t>
   </si>
   <si>
     <t>5场PVP示例,演示同一个进度类型使用动态属性而编辑出新的任务</t>
@@ -138,7 +138,7 @@
     <t>4_5</t>
   </si>
   <si>
-    <t>CfgId_1#Num_5;CfgId_4#Num_2</t>
+    <t>1_5;4_2</t>
   </si>
   <si>
     <t>赢5场PVP示例,演示同一个进度类型使用动态属性而编辑出新的任务</t>
@@ -150,8 +150,8 @@
     <t>5_5</t>
   </si>
   <si>
-    <t>CfgId_1#Num_5
-CfgId_2#Num_1;CfgId_4#Num_3</t>
+    <t>1_5
+2_1;4_3</t>
   </si>
   <si>
     <t>赢5场指定条件的PVP,演示复杂的数值比较接口</t>
@@ -172,9 +172,6 @@
     <t>2_1</t>
   </si>
   <si>
-    <t>CfgId_1#Num_1</t>
-  </si>
-  <si>
     <t>活动3子任务:3日目标第1天,5场PVP</t>
   </si>
   <si>
@@ -193,7 +190,7 @@
     <t>4_20</t>
   </si>
   <si>
-    <t>CfgId_1#Num_3</t>
+    <t>1_3</t>
   </si>
   <si>
     <t>活动3子任务:3日目标第3天,赢20场PVP</t>
@@ -214,9 +211,6 @@
     <t>7_5</t>
   </si>
   <si>
-    <t>CfgId_1#Num_5</t>
-  </si>
-  <si>
     <t>活动4子任务:在线5分钟</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>7_7</t>
   </si>
   <si>
-    <t>CfgId_1#Num_10</t>
-  </si>
-  <si>
     <t>活动4子任务:在线10分钟</t>
   </si>
   <si>
@@ -241,7 +232,7 @@
     <t>随机任务3</t>
   </si>
   <si>
-    <t>CfgId_4#Num_10</t>
+    <t>4_10</t>
   </si>
 </sst>
 </file>
@@ -857,12 +848,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1403,7 +1391,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1412,7 +1400,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="20.875" customWidth="1"/>
@@ -1496,7 +1484,7 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
@@ -1650,10 +1638,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1661,7 +1649,7 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1670,13 +1658,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1684,7 +1672,7 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1693,13 +1681,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1707,22 +1695,22 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>40002</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1730,22 +1718,22 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>40003</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1753,19 +1741,19 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1773,19 +1761,19 @@
         <v>60001</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1793,19 +1781,19 @@
         <v>60002</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1813,19 +1801,19 @@
         <v>60003</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>CfgId</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>QuestType</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>ConditionTemplates
@@ -53,8 +56,7 @@
     <t>NextQuests</t>
   </si>
   <si>
-    <t>Properties
-#Format=json</t>
+    <t>Properties</t>
   </si>
   <si>
     <t>Detail</t>
@@ -63,9 +65,6 @@
     <t>cs</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>#注释行</t>
   </si>
   <si>
@@ -75,10 +74,16 @@
     <t>任务类型</t>
   </si>
   <si>
+    <t>任务分类
+enum 
+QuestCategory</t>
+  </si>
+  <si>
     <t>任务条件</t>
   </si>
   <si>
-    <t>任务进度</t>
+    <t>任务进度,格式:
+进度模板id_进度值</t>
   </si>
   <si>
     <t>任务奖励</t>
@@ -848,9 +853,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1388,26 +1396,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="62.25" customWidth="1"/>
+    <col min="3" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:9">
+    <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1425,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1426,46 +1434,52 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:9">
+    <row r="2" ht="60" customHeight="1" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:9">
+    <row r="3" ht="60" customHeight="1" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1475,7 +1489,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1487,333 +1501,336 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" ht="27" spans="1:9">
+    <row r="8" ht="27" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20001</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
         <v>43</v>
       </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
         <v>49</v>
       </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G12" t="s">
         <v>53</v>
       </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
         <v>40002</v>
       </c>
-      <c r="I13" t="s">
-        <v>56</v>
+      <c r="J13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
         <v>40003</v>
       </c>
-      <c r="I14" t="s">
-        <v>59</v>
+      <c r="J14" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
         <v>62</v>
       </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>60001</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>60002</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>60003</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
       <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -26,8 +26,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gy</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>QuestType_None        = 0;
+QuestType_SubQuest    = 1; // 其他系统的子任务(如活动的子任务)
+QuestType_Achievement = 2; // 成就</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>QuestCategory_None = 0;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RefreshType_Day = 1; // 每日重置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>gy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+条件模板表: condition_template.xlsx</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>进度模板表:progress_template.xlsx</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>CfgId</t>
   </si>
@@ -39,6 +121,12 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>RefreshType</t>
+  </si>
+  <si>
+    <t>PlayerLevel</t>
   </si>
   <si>
     <t>ConditionTemplates
@@ -71,7 +159,8 @@
     <t>任务名</t>
   </si>
   <si>
-    <t>任务类型</t>
+    <t>任务类型
+enum QuestType</t>
   </si>
   <si>
     <t>任务分类
@@ -79,11 +168,20 @@
 QuestCategory</t>
   </si>
   <si>
-    <t>任务条件</t>
-  </si>
-  <si>
-    <t>任务进度,格式:
-进度模板id_进度值</t>
+    <t>刷新类型
+enum RefreshType</t>
+  </si>
+  <si>
+    <t>玩家等级限制(0表示不限制)</t>
+  </si>
+  <si>
+    <t>任务条件
+格式: 条件id_参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任务进度,格式:
+进度id_进度值
+</t>
   </si>
   <si>
     <t>任务奖励</t>
@@ -162,6 +260,15 @@
     <t>赢5场指定条件的PVP,演示复杂的数值比较接口</t>
   </si>
   <si>
+    <t>日常任务-1场战斗</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>日常任务-1场战斗,演示每日刷新的任务</t>
+  </si>
+  <si>
     <t>累充礼包</t>
   </si>
   <si>
@@ -172,9 +279,6 @@
   </si>
   <si>
     <t>3日目标第1天</t>
-  </si>
-  <si>
-    <t>2_1</t>
   </si>
   <si>
     <t>活动3子任务:3日目标第1天,5场PVP</t>
@@ -250,7 +354,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +505,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1396,26 +1511,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="62.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:10">
+    <row r="1" ht="32" customHeight="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1428,16 +1544,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1446,395 +1562,465 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:10">
+    <row r="2" ht="60" customHeight="1" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:10">
+    <row r="3" ht="40.5" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" t="s">
-        <v>24</v>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:10">
+    <row r="8" ht="27" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>20001</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>30001</v>
-      </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
-        <v>40002</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>40003</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>40002</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>40003</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16">
-        <v>60001</v>
+        <v>40003</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" t="s">
-        <v>64</v>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>60003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>CfgId</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>PlayerLevel</t>
+  </si>
+  <si>
+    <t>Collects
+#Field=CfgId_Num#Ref=ItemCfg</t>
   </si>
   <si>
     <t>ConditionTemplates
@@ -173,6 +177,9 @@
   </si>
   <si>
     <t>玩家等级限制(0表示不限制)</t>
+  </si>
+  <si>
+    <t>需要收集的物品(一般是任务物品)</t>
   </si>
   <si>
     <t>任务条件
@@ -1511,10 +1518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1523,15 +1530,16 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="62.25" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:12">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,104 +1561,113 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:12">
+    <row r="2" ht="60" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:12">
+    <row r="3" ht="40.5" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1660,23 +1677,23 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" t="s">
         <v>28</v>
       </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1686,22 +1703,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
         <v>32</v>
       </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1711,22 +1728,22 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
         <v>36</v>
       </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1736,25 +1753,25 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
         <v>41</v>
       </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" ht="27" spans="1:12">
+    <row r="8" ht="27" spans="1:13">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1764,25 +1781,25 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
         <v>45</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1793,229 +1810,229 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>20001</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
       <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>30001</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>30002</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>30003</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" t="s">
         <v>60</v>
       </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>40001</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
         <v>40002</v>
       </c>
-      <c r="L14" t="s">
-        <v>63</v>
+      <c r="M14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>40002</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
       <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15">
         <v>40003</v>
       </c>
-      <c r="L15" t="s">
-        <v>66</v>
+      <c r="M15" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>40003</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
       <c r="I16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>60001</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>60002</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>65</v>
-      </c>
       <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>60003</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
       <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>CfgId</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>日常任务-1场战斗,演示每日刷新的任务</t>
+  </si>
+  <si>
+    <t>收集任务</t>
+  </si>
+  <si>
+    <t>20001_1</t>
+  </si>
+  <si>
+    <t>收集任务示例</t>
   </si>
   <si>
     <t>累充礼包</t>
@@ -1518,10 +1527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1822,19 +1831,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>20001</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" t="s">
         <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>
@@ -1842,7 +1851,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -1850,25 +1859,22 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1877,10 +1883,10 @@
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>58</v>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -1903,30 +1909,30 @@
         <v>60</v>
       </c>
       <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>61</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
       <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>40002</v>
       </c>
       <c r="M14" t="s">
         <v>65</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -1946,10 +1952,10 @@
         <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="M15" t="s">
         <v>68</v>
@@ -1957,7 +1963,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -1969,7 +1975,10 @@
         <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>40003</v>
       </c>
       <c r="M16" t="s">
         <v>71</v>
@@ -1977,7 +1986,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>60001</v>
+        <v>40003</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -1986,21 +1995,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2009,18 +2018,18 @@
         <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2029,10 +2038,30 @@
         <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>60003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>CfgId</t>
   </si>
@@ -984,12 +984,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1530,7 +1527,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,19 +1567,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1611,13 +1608,13 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
@@ -1640,28 +1637,28 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
@@ -1681,8 +1678,6 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1692,7 +1687,7 @@
       <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="1"/>
       <c r="M4" t="s">
         <v>30</v>
       </c>
@@ -1707,8 +1702,6 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5">
         <v>1</v>
       </c>
@@ -1732,8 +1725,6 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6">
         <v>2</v>
       </c>
@@ -1757,8 +1748,6 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7">
         <v>2</v>
       </c>
@@ -1785,8 +1774,6 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8">
         <v>2</v>
       </c>
@@ -1796,7 +1783,7 @@
       <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M8" t="s">
@@ -1844,6 +1831,9 @@
       </c>
       <c r="G10" t="s">
         <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>

--- a/excel/questcfg.xlsx
+++ b/excel/questcfg.xlsx
@@ -523,12 +523,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
